--- a/biology/Botanique/Rubus_occidentalis/Rubus_occidentalis.xlsx
+++ b/biology/Botanique/Rubus_occidentalis/Rubus_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Framboisier noir, Ronce à framboises noires
 Rubus occidentalis, en français Framboisier noir ou Ronce à framboises noires, est une espèce de plante à fleurs de la famille des Rosaceae et du genre Rubus, originaire de l'est de l'Amérique du Nord.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Framboisier noir est un arbuste vivace épineux haut de 1 m à feuilles caduques. Les feuilles, alternes, composées à trois folioles dentés, sont ovales et ont un revers très poilu et blanc. Les deux folioles du bas sont parfois profondément lobés ou redivisés[1].
-Appareil reproducteur
-Les fleurs, à cinq pétales blancs et cinq sépales verts, sont regroupées à l'extrémité des branches. Les pétales sont plus courts que les sépales qui restent dressés. Le fruit est une framboise noire de 1 cm de diamètre qui se détache facilement du réceptacle floral[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Framboisier noir est un arbuste vivace épineux haut de 1 m à feuilles caduques. Les feuilles, alternes, composées à trois folioles dentés, sont ovales et ont un revers très poilu et blanc. Les deux folioles du bas sont parfois profondément lobés ou redivisés.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Framboisier noir pousse dans les sols bien drainés des endroits ouverts[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, à cinq pétales blancs et cinq sépales verts, sont regroupées à l'extrémité des branches. Les pétales sont plus courts que les sépales qui restent dressés. Le fruit est une framboise noire de 1 cm de diamètre qui se détache facilement du réceptacle floral.
 </t>
         </is>
       </c>
@@ -574,15 +595,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Framboisier noir pousse dans les sols bien drainés des endroits ouverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubus_occidentalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_occidentalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaires
-Les fruits peuvent être consommés frais ou être utilisés pour faire des tartes et des confitures[2].
-Médicinales
-Le Framboisier noir peut être utilisé contre les maux de gorges, les diarrhées et contre les spasmes[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits peuvent être consommés frais ou être utilisés pour faire des tartes et des confitures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubus_occidentalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_occidentalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Framboisier noir peut être utilisé contre les maux de gorges, les diarrhées et contre les spasmes.
 </t>
         </is>
       </c>
